--- a/Pi-PROG-CM4/JLC-BOM-TOP.xlsx
+++ b/Pi-PROG-CM4/JLC-BOM-TOP.xlsx
@@ -108,18 +108,9 @@
     <t>R3,R4,R5</t>
   </si>
   <si>
-    <t>SOT23-5</t>
-  </si>
-  <si>
     <t>CM4A,CM4B</t>
   </si>
   <si>
-    <t>SN74LVC1G07DBVR</t>
-  </si>
-  <si>
-    <t>C7829</t>
-  </si>
-  <si>
     <t>2K2 1% RC0603JR-072K2L</t>
   </si>
   <si>
@@ -133,6 +124,15 @@
   </si>
   <si>
     <t>C3642394</t>
+  </si>
+  <si>
+    <t>SN74LVC1G07DCKR</t>
+  </si>
+  <si>
+    <t>SC-70-5</t>
+  </si>
+  <si>
+    <t>C7830</t>
   </si>
 </sst>
 </file>
@@ -579,7 +579,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -648,7 +648,7 @@
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>18</v>
@@ -657,7 +657,7 @@
         <v>603</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -676,30 +676,30 @@
     </row>
     <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">

--- a/Pi-PROG-CM4/JLC-BOM-TOP.xlsx
+++ b/Pi-PROG-CM4/JLC-BOM-TOP.xlsx
@@ -126,13 +126,13 @@
     <t>C3642394</t>
   </si>
   <si>
-    <t>SN74LVC1G07DCKR</t>
-  </si>
-  <si>
-    <t>SC-70-5</t>
-  </si>
-  <si>
-    <t>C7830</t>
+    <t>SOT23-5L</t>
+  </si>
+  <si>
+    <t>C23654</t>
+  </si>
+  <si>
+    <t>TI SN74LVC1G125DBVR</t>
   </si>
 </sst>
 </file>
@@ -579,7 +579,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -676,16 +676,16 @@
     </row>
     <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
